--- a/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/登校_0～100人毎時.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/登校_0～100人毎時.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\x64\Release\results\add_positive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\results\記録用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,7 +841,7 @@
             <c:numRef>
               <c:f>result!$B$1:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -886,11 +889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422546864"/>
-        <c:axId val="422541376"/>
+        <c:axId val="567066384"/>
+        <c:axId val="567066776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422546864"/>
+        <c:axId val="567066384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,12 +950,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422541376"/>
+        <c:crossAx val="567066776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422541376"/>
+        <c:axId val="567066776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -974,7 +977,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1011,7 +1014,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422546864"/>
+        <c:crossAx val="567066384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1917,7 +1920,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/登校_0～100人毎時.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/登校_0～100人毎時.xlsx
@@ -692,79 +692,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>登校人数が一時間当たり</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>～</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>人の時のプライバシデータ流出比</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -787,7 +715,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -805,34 +733,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,13 +817,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="567066384"/>
-        <c:axId val="567066776"/>
+        <c:axId val="467365416"/>
+        <c:axId val="467370120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="567066384"/>
+        <c:axId val="467365416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -913,6 +842,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>登校者人数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>人</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -935,7 +933,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -950,12 +948,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567066776"/>
+        <c:crossAx val="467370120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567066776"/>
+        <c:axId val="467370120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -977,6 +975,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>第三者プライバシデータ流出比</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -999,7 +1053,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1014,7 +1068,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567066384"/>
+        <c:crossAx val="467365416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1623,16 +1677,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1920,7 +1974,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1935,7 +1989,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0.98721000000000003</v>
@@ -1943,7 +1997,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>0.97467000000000004</v>
@@ -1951,7 +2005,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>0.96257999999999999</v>
@@ -1959,7 +2013,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>0.95071000000000006</v>
@@ -1967,7 +2021,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>0.93920000000000003</v>
@@ -1975,7 +2029,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>0.92788000000000004</v>
@@ -1983,7 +2037,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1">
         <v>0.91671000000000002</v>
@@ -1991,7 +2045,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1">
         <v>0.90598999999999996</v>
@@ -1999,7 +2053,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1">
         <v>0.89548000000000005</v>
@@ -2007,7 +2061,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1">
         <v>0.88536999999999999</v>
@@ -2016,6 +2070,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>